--- a/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,40 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,23 +711,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,23 +743,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,23 +775,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -819,14 +833,14 @@
         <v>6600</v>
       </c>
       <c r="E12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F12" s="3">
         <v>21800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5700</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,14 +929,14 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,23 +962,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E17" s="3">
         <v>14600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>50100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12300</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,23 +992,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-35400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9400</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,23 +1040,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>63500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,23 +1070,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>32200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,22 +1102,25 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1094,23 +1134,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16500</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1166,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1132,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,23 +1230,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16500</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,23 +1262,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20700</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,23 +1422,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-63500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,23 +1454,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20700</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,23 +1518,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20700</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,28 +1550,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,17 +1617,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E41" s="3">
         <v>24400</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,17 +1647,20 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E42" s="3">
         <v>40000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1589,17 +1679,20 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2300</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,17 +1711,20 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E44" s="3">
         <v>9800</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,17 +1743,20 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,17 +1775,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E46" s="3">
         <v>77800</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,17 +1839,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E48" s="3">
         <v>17900</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +1871,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,17 +1967,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,17 +2031,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E54" s="3">
         <v>96300</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,17 +2093,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,16 +2123,19 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2021,17 +2155,20 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E59" s="3">
         <v>5000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,17 +2187,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E60" s="3">
         <v>6900</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,17 +2219,20 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E61" s="3">
         <v>29500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2108,17 +2251,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E62" s="3">
         <v>8500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,17 +2379,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E66" s="3">
         <v>44900</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2333,7 +2501,7 @@
         <v>353300</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>353300</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,17 +2553,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-450900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-437400</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,17 +2681,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-313400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-301900</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2745,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,23 +2782,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20700</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2641,14 +2840,14 @@
         <v>1000</v>
       </c>
       <c r="E83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F83" s="3">
         <v>4000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,23 +3020,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12200</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,23 +3068,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,23 +3162,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E94" s="3">
         <v>14500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>15600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>24200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,23 +3336,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E100" s="3">
         <v>6100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>25200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,22 +3368,25 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3151,23 +3400,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E102" s="3">
         <v>10400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,29 +715,35 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F8" s="3">
         <v>4900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>14700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -746,29 +753,35 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F9" s="3">
         <v>5700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>13000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,29 +791,35 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="3">
         <v>-800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,8 +829,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,29 +849,31 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F12" s="3">
         <v>6600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>21800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>5700</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,8 +883,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +921,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +959,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,17 +977,17 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -952,8 +997,14 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,29 +1014,31 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F17" s="3">
         <v>18800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>14600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>50100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>12300</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,29 +1048,35 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-13900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-11100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-35400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-9400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1086,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,29 +1106,31 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>63500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,29 +1140,35 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>32200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-15500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,28 +1178,34 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1137,29 +1216,35 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-13500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>27600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-16500</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1169,8 +1254,14 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1181,16 +1272,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1201,8 +1292,14 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,29 +1330,35 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>27600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-16500</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,29 +1368,35 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-13500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-20700</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1406,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1444,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1482,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1520,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,29 +1558,35 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-63500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1457,29 +1596,35 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-13500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-20700</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1634,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,29 +1672,35 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-13500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-20700</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1553,34 +1710,40 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1753,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1773,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,23 +1789,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>68300</v>
+      </c>
+      <c r="F41" s="3">
         <v>41700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>24400</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,23 +1823,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F42" s="3">
         <v>20000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>40000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1682,23 +1861,29 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,23 +1899,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F44" s="3">
         <v>8500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>9800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,23 +1937,29 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,23 +1975,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>176300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>186300</v>
+      </c>
+      <c r="F46" s="3">
         <v>75500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>77800</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +2013,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,23 +2051,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F48" s="3">
         <v>17400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>17900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +2089,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2127,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2165,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,23 +2203,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>800</v>
+      </c>
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2241,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,23 +2279,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>192700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>203700</v>
+      </c>
+      <c r="F54" s="3">
         <v>94900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>96300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2317,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2337,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,23 +2353,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2387,14 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2137,11 +2404,11 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2158,23 +2425,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F59" s="3">
         <v>8700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2463,14 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2199,14 +2478,14 @@
         <v>11100</v>
       </c>
       <c r="E60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G60" s="3">
         <v>6900</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,23 +2501,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F61" s="3">
         <v>39500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>29500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2254,23 +2539,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F62" s="3">
         <v>4300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>8500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2577,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2615,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2653,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,23 +2691,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>52800</v>
+      </c>
+      <c r="F66" s="3">
         <v>55000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>44900</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2729,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2749,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2783,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,23 +2821,29 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>353300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>353300</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2524,8 +2859,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,23 +2897,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-479300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-463500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-450900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-437400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2935,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2973,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +3011,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,23 +3049,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>150900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-313400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-301900</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +3087,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,34 +3125,40 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,29 +3168,35 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-13500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-20700</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3206,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3226,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2843,16 +3240,16 @@
         <v>1000</v>
       </c>
       <c r="F83" s="3">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2863,8 +3260,14 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3298,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3336,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3374,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3412,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,29 +3450,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-10300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-35200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-12200</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3488,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,29 +3508,31 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,8 +3542,14 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3580,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,29 +3618,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="F94" s="3">
         <v>19200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>14500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>15600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>24200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3656,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3676,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3710,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3748,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3786,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,29 +3824,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>120500</v>
+      </c>
+      <c r="F100" s="3">
         <v>10200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>6100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>25200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3371,8 +3862,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3382,8 +3879,8 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3391,8 +3888,8 @@
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3403,29 +3900,35 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F102" s="3">
         <v>17400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>10400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>12100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,6 +3936,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>RXST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,49 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
-        <v>43921</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="J7" s="2">
+        <v>44104</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -721,31 +721,34 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E8" s="3">
         <v>8400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3500</v>
       </c>
-      <c r="H8" s="3">
-        <v>14700</v>
-      </c>
       <c r="I8" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>4900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4200</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -759,31 +762,34 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E9" s="3">
         <v>5600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
-        <v>13000</v>
-      </c>
       <c r="I9" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>3500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3500</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -797,31 +803,34 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
-        <v>1700</v>
-      </c>
       <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>800</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -835,8 +844,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,32 +863,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E12" s="3">
         <v>5800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6600</v>
       </c>
       <c r="G12" s="3">
         <v>6600</v>
       </c>
       <c r="H12" s="3">
-        <v>21800</v>
+        <v>6600</v>
       </c>
       <c r="I12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J12" s="3">
         <v>5700</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +902,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +943,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,13 +984,16 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -983,13 +1005,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1003,8 +1025,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,31 +1041,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>23100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14600</v>
       </c>
-      <c r="H17" s="3">
-        <v>50100</v>
-      </c>
       <c r="I17" s="3">
-        <v>12300</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>13200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1054,31 +1080,34 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-35400</v>
-      </c>
       <c r="I18" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-8900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1121,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,31 +1140,32 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5000</v>
       </c>
-      <c r="H20" s="3">
-        <v>63500</v>
-      </c>
       <c r="I20" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>35100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>39600</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1146,31 +1179,34 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
-        <v>32200</v>
-      </c>
       <c r="I21" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>27800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>31800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1220,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1196,19 +1235,19 @@
         <v>1100</v>
       </c>
       <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1222,31 +1261,34 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6800</v>
       </c>
-      <c r="H23" s="3">
-        <v>27600</v>
-      </c>
       <c r="I23" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>26300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>30700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1260,8 +1302,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1278,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1343,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,31 +1384,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6800</v>
       </c>
-      <c r="H26" s="3">
-        <v>27600</v>
-      </c>
       <c r="I26" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>26300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>30700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1374,31 +1425,34 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6800</v>
       </c>
-      <c r="H27" s="3">
-        <v>3400</v>
-      </c>
       <c r="I27" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>18300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1466,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1507,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1548,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1589,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,31 +1630,34 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5000</v>
       </c>
-      <c r="H32" s="3">
-        <v>-63500</v>
-      </c>
       <c r="I32" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-35100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-39600</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1602,31 +1671,34 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="H33" s="3">
-        <v>3400</v>
-      </c>
       <c r="I33" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>18300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1712,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,31 +1753,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="H35" s="3">
-        <v>3400</v>
-      </c>
       <c r="I35" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>18300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1716,36 +1794,39 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
-        <v>43921</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="J38" s="2">
+        <v>44104</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1759,8 +1840,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1859,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,26 +1876,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E41" s="3">
         <v>24400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>68300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>41700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24400</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,26 +1915,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E42" s="3">
         <v>135000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>100000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>20000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>40000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,26 +1956,29 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E43" s="3">
         <v>4900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,26 +1997,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E44" s="3">
         <v>8000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9800</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,26 +2038,29 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,26 +2079,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>161100</v>
+      </c>
+      <c r="E46" s="3">
         <v>176300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>186300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>75500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>77800</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2120,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,26 +2161,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2202,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2243,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2284,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,26 +2325,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2366,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,26 +2407,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E54" s="3">
         <v>192700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>203700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>94900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>96300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2448,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2467,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,26 +2484,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="E57" s="3">
         <v>1700</v>
       </c>
       <c r="F57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,13 +2523,16 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2410,8 +2543,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2431,26 +2564,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E59" s="3">
         <v>9400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,26 +2605,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E60" s="3">
         <v>11100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6900</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,26 +2646,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E61" s="3">
         <v>39800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2545,26 +2687,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E62" s="3">
         <v>3600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2728,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2769,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2810,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,26 +2851,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E66" s="3">
         <v>54500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>52800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>44900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2892,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2911,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2950,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2991,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2839,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>353300</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>353300</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>353300</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2865,8 +3032,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,26 +3073,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-479300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-463500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-450900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-437400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3114,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3155,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3196,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,26 +3237,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>138200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>150900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-313400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-301900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3278,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,36 +3319,39 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
-        <v>43921</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="J80" s="2">
+        <v>44104</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -3174,31 +3365,34 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="H81" s="3">
-        <v>3400</v>
-      </c>
       <c r="I81" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>18300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>5900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3406,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3425,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3246,13 +3444,13 @@
         <v>1000</v>
       </c>
       <c r="H83" s="3">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>1100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3266,8 +3464,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3505,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3546,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3587,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3628,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,31 +3669,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-35200</v>
-      </c>
       <c r="I89" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-8200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-6900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3494,8 +3710,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3729,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3519,22 +3739,22 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-2500</v>
-      </c>
       <c r="I91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-600</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3548,8 +3768,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3809,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,31 +3850,34 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-80200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>19200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>14500</v>
       </c>
-      <c r="H94" s="3">
-        <v>15600</v>
-      </c>
       <c r="I94" s="3">
-        <v>24200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-14500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>6400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3662,8 +3891,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3910,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3949,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3990,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4031,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,32 +4072,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>120500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6100</v>
       </c>
-      <c r="H100" s="3">
-        <v>25200</v>
-      </c>
       <c r="I100" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,13 +4113,16 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3885,14 +4133,14 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3906,31 +4154,34 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-43700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10400</v>
       </c>
-      <c r="H102" s="3">
-        <v>5600</v>
-      </c>
       <c r="I102" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>1600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3942,6 +4193,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>RXST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,54 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,35 +725,38 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E8" s="3">
         <v>8900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -765,34 +769,37 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E9" s="3">
         <v>5200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3500</v>
       </c>
       <c r="J9" s="3">
         <v>3500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="K9" s="3">
+        <v>3500</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
@@ -806,35 +813,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E10" s="3">
         <v>3700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,35 +877,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6700</v>
+        <v>6100</v>
       </c>
       <c r="E12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F12" s="3">
         <v>5800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6600</v>
       </c>
       <c r="H12" s="3">
         <v>6600</v>
       </c>
       <c r="I12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J12" s="3">
         <v>5300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5700</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -905,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,13 +1007,16 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1013,8 +1036,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
@@ -1028,8 +1051,11 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,35 +1068,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>27200</v>
       </c>
       <c r="E17" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F17" s="3">
         <v>23100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,35 +1110,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-15800</v>
       </c>
       <c r="E18" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,35 +1174,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>35100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>39600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,35 +1216,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-14600</v>
       </c>
       <c r="E21" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-13600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>31800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1260,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1238,19 +1278,19 @@
         <v>1100</v>
       </c>
       <c r="G22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1264,35 +1304,38 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>30700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1348,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1331,8 +1377,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1346,8 +1392,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,35 +1436,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-16700</v>
       </c>
       <c r="E26" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-15700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>30700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,35 +1480,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-16700</v>
       </c>
       <c r="E27" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-15700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,35 +1700,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-35100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-39600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,35 +1744,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-16700</v>
       </c>
       <c r="E33" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-15700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1756,35 +1832,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-16700</v>
       </c>
       <c r="E35" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-15700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1797,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,29 +1963,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E41" s="3">
         <v>24100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>68300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1918,29 +2005,32 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E42" s="3">
         <v>119700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>135000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>100000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>20000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>40000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,29 +2049,32 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E43" s="3">
         <v>5600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,29 +2093,32 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2600</v>
+        <v>11600</v>
       </c>
       <c r="E44" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F44" s="3">
         <v>8000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9800</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,29 +2137,32 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,29 +2181,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>149900</v>
+      </c>
+      <c r="E46" s="3">
         <v>161100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>176300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>186300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>75500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>77800</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,8 +2225,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2164,29 +2269,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E48" s="3">
         <v>15000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2205,8 +2313,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2246,8 +2357,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2287,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2328,29 +2445,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
       </c>
       <c r="F52" s="3">
+        <v>900</v>
+      </c>
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,29 +2533,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>166700</v>
+      </c>
+      <c r="E54" s="3">
         <v>177100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>192700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>203700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>94900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2451,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2485,29 +2615,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1700</v>
       </c>
       <c r="F57" s="3">
         <v>1700</v>
       </c>
       <c r="G57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,16 +2657,19 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2546,8 +2680,8 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2567,29 +2701,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8100</v>
+        <v>9600</v>
       </c>
       <c r="E59" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F59" s="3">
         <v>9400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2608,29 +2745,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,29 +2789,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39900</v>
+        <v>40000</v>
       </c>
       <c r="E61" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F61" s="3">
         <v>39800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2690,29 +2833,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="E62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="3">
         <v>3600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2772,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2813,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2854,29 +3009,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E66" s="3">
         <v>53900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>52800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>44900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2895,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2953,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3009,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>353300</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>353300</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>353300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3035,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3076,29 +3247,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-513600</v>
       </c>
       <c r="E72" s="3">
+        <v>-496900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-479300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-463500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-450900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-437400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3240,29 +3423,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>110000</v>
       </c>
       <c r="E76" s="3">
+        <v>123200</v>
+      </c>
+      <c r="F76" s="3">
         <v>138200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>150900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-313400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-301900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3281,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3322,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3368,35 +3560,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-16700</v>
       </c>
       <c r="E81" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-15700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3409,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3426,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3450,11 +3649,11 @@
         <v>1000</v>
       </c>
       <c r="J83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3467,8 +3666,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3508,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3549,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3672,35 +3886,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3713,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3730,35 +3950,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-1100</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-500</v>
       </c>
       <c r="I91" s="3">
         <v>-500</v>
       </c>
       <c r="J91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3771,8 +3992,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3812,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,35 +4080,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E94" s="3">
         <v>14900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-80200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>19200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>14500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3894,8 +4124,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3952,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3993,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4034,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4075,35 +4318,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>600</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>120500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>24300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4116,13 +4362,16 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4136,14 +4385,14 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4157,35 +4406,38 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-43700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4196,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,38 +729,41 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E8" s="3">
         <v>11400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -772,37 +776,40 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E9" s="3">
         <v>6600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3500</v>
       </c>
       <c r="K9" s="3">
         <v>3500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3">
+        <v>3500</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -816,38 +823,41 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E10" s="3">
         <v>4800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,38 +891,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6600</v>
       </c>
       <c r="I12" s="3">
         <v>6600</v>
       </c>
       <c r="J12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K12" s="3">
         <v>5300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5700</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1039,8 +1062,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,38 +1095,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E17" s="3">
         <v>27200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,38 +1140,41 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,38 +1208,39 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>35100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>39600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,38 +1253,41 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>31800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,13 +1300,16 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
         <v>1100</v>
@@ -1281,19 +1321,19 @@
         <v>1100</v>
       </c>
       <c r="H22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1307,38 +1347,41 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,8 +1394,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1380,8 +1426,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,38 +1488,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,38 +1535,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,38 +1770,41 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-35100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-39600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,38 +1817,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,38 +1911,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,43 +1958,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,32 +2050,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E41" s="3">
         <v>24000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,32 +2095,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E42" s="3">
         <v>104600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>119700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>135000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>100000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>20000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>40000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,32 +2142,35 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,32 +2189,35 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E44" s="3">
         <v>11600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2140,32 +2236,35 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,32 +2283,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>139200</v>
+      </c>
+      <c r="E46" s="3">
         <v>149900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>161100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>176300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>186300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>75500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>77800</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2330,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2272,32 +2377,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2316,8 +2424,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,32 +2565,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>900</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
       </c>
       <c r="G52" s="3">
+        <v>900</v>
+      </c>
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,32 +2659,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E54" s="3">
         <v>166700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>177100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>192700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>203700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>94900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>96300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,32 +2746,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1700</v>
       </c>
       <c r="G57" s="3">
         <v>1700</v>
       </c>
       <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,19 +2791,22 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2683,8 +2817,8 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2704,32 +2838,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,32 +2885,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E60" s="3">
         <v>13000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,32 +2932,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40000</v>
+        <v>40100</v>
       </c>
       <c r="E61" s="3">
         <v>40000</v>
       </c>
       <c r="F61" s="3">
+        <v>40000</v>
+      </c>
+      <c r="G61" s="3">
         <v>39800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2836,32 +2979,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,32 +3167,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E66" s="3">
         <v>56700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3180,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>353300</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>353300</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>353300</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,32 +3421,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-530400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-513600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-496900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-479300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-463500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-450900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-437400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,32 +3609,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E76" s="3">
         <v>110000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>123200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>138200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>150900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-313400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-301900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,43 +3703,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,38 +3755,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3652,11 +3851,11 @@
         <v>1000</v>
       </c>
       <c r="K83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,38 +4103,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,38 +4171,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-400</v>
       </c>
       <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-500</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
       </c>
       <c r="K91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,38 +4310,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>600</v>
+      </c>
+      <c r="E94" s="3">
         <v>14100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>14900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-80200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>19200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>14500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,38 +4564,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>120500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>24300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4388,14 +4637,14 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4409,38 +4658,41 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-43700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,61 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,41 +732,44 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E8" s="3">
         <v>12600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,40 +782,43 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E9" s="3">
         <v>7300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3500</v>
       </c>
       <c r="L9" s="3">
         <v>3500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>3500</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
@@ -826,41 +832,44 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E10" s="3">
         <v>5300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +882,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,41 +904,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E12" s="3">
         <v>6300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6600</v>
       </c>
       <c r="J12" s="3">
         <v>6600</v>
       </c>
       <c r="K12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L12" s="3">
         <v>5300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5700</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +952,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1002,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1052,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1065,8 +1087,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
@@ -1080,8 +1102,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,41 +1121,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E17" s="3">
         <v>28600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,41 +1169,44 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-16000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1219,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,41 +1241,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>35100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>39600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,41 +1289,44 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>31800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,16 +1339,19 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
@@ -1324,19 +1363,19 @@
         <v>1100</v>
       </c>
       <c r="I22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1350,41 +1389,44 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1439,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1429,8 +1474,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1444,8 +1489,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,41 +1539,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,41 +1589,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1639,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,41 +1839,44 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-35100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-39600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,41 +1889,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1939,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,41 +1989,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,46 +2039,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2094,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2136,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E41" s="3">
         <v>8900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>68300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>41700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,35 +2184,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E42" s="3">
         <v>103900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>104600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>119700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>135000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>100000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>20000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>40000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2145,35 +2234,38 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,35 +2284,38 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E44" s="3">
         <v>15300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,35 +2334,38 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,35 +2384,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>134600</v>
+      </c>
+      <c r="E46" s="3">
         <v>139200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>149900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>161100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>176300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>186300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>75500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>77800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2434,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2380,35 +2484,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E48" s="3">
         <v>15000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2534,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2584,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,35 +2684,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>900</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
       </c>
       <c r="H52" s="3">
+        <v>900</v>
+      </c>
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2734,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2784,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>150200</v>
+      </c>
+      <c r="E54" s="3">
         <v>155700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>166700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>177100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>192700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>203700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>94900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>96300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2834,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,35 +2876,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1700</v>
       </c>
       <c r="H57" s="3">
         <v>1700</v>
       </c>
       <c r="I57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2924,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2803,13 +2936,13 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2820,8 +2953,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2841,35 +2974,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E59" s="3">
         <v>12000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,35 +3024,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E60" s="3">
         <v>16400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,35 +3074,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E61" s="3">
         <v>40100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>40000</v>
       </c>
       <c r="F61" s="3">
         <v>40000</v>
       </c>
       <c r="G61" s="3">
+        <v>40000</v>
+      </c>
+      <c r="H61" s="3">
         <v>39800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2982,35 +3124,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E62" s="3">
         <v>3300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3174,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3324,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E66" s="3">
         <v>59700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3374,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3351,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>353300</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>353300</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>353300</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3377,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3594,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-546000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-530400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-513600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-496900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-479300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-463500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-450900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-437400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3644,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3794,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E76" s="3">
         <v>96000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>110000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>123200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>138200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>150900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-313400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-301900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3844,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3894,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,41 +3949,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +3999,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4021,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3854,11 +4052,11 @@
         <v>1000</v>
       </c>
       <c r="L83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +4069,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,41 +4319,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4369,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,41 +4391,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-400</v>
       </c>
       <c r="G91" s="3">
         <v>-400</v>
       </c>
       <c r="H91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-500</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
       </c>
       <c r="L91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4219,8 +4439,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,41 +4539,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E94" s="3">
         <v>600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>14100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>14900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-80200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>19200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>14500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4589,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4611,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4659,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,41 +4809,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>120500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>24300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4859,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4640,14 +4888,14 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4661,41 +4909,44 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-43700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>26500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4957,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,65 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -735,44 +736,47 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E8" s="3">
         <v>16100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -785,43 +789,46 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E9" s="3">
         <v>8700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3500</v>
       </c>
       <c r="M9" s="3">
         <v>3500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
+      <c r="N9" s="3">
+        <v>3500</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
@@ -835,44 +842,47 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E10" s="3">
         <v>7400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -885,8 +895,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,44 +918,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E12" s="3">
         <v>6600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6600</v>
       </c>
       <c r="K12" s="3">
         <v>6600</v>
       </c>
       <c r="L12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M12" s="3">
         <v>5300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5700</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -955,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1022,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,8 +1075,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,8 +1113,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
@@ -1105,8 +1128,11 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,44 +1148,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E17" s="3">
         <v>31100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1172,44 +1199,47 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1252,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,44 +1275,45 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>35100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>39600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,44 +1326,47 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1342,8 +1379,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,10 +1391,10 @@
         <v>1500</v>
       </c>
       <c r="E22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1100</v>
       </c>
       <c r="G22" s="3">
         <v>1100</v>
@@ -1366,19 +1406,19 @@
         <v>1100</v>
       </c>
       <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1392,44 +1432,47 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,8 +1485,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1477,8 +1523,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1492,8 +1538,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,44 +1591,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,44 +1644,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1697,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,44 +1909,47 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-35100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-39600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1892,44 +1962,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1942,8 +2015,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,44 +2068,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,49 +2121,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2179,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,38 +2223,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>68300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,38 +2274,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E42" s="3">
         <v>94000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>103900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>104600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>119700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>135000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>100000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>20000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>40000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,38 +2327,41 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E43" s="3">
         <v>11000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2380,41 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E44" s="3">
         <v>14800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,8 +2433,11 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2346,29 +2445,29 @@
         <v>3000</v>
       </c>
       <c r="E45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,38 +2486,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E46" s="3">
         <v>134600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>139200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>149900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>161100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>176300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>186300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>75500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>77800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2539,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2487,38 +2592,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E48" s="3">
         <v>14100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,8 +2645,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2587,8 +2698,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,8 +2804,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2696,29 +2816,29 @@
         <v>1500</v>
       </c>
       <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>900</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
       </c>
       <c r="I52" s="3">
+        <v>900</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2857,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,38 +2910,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>202500</v>
+      </c>
+      <c r="E54" s="3">
         <v>150200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>155700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>166700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>177100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>192700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>203700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>94900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2837,8 +2963,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,38 +3007,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1700</v>
       </c>
       <c r="I57" s="3">
         <v>1700</v>
       </c>
       <c r="J57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2927,25 +3058,28 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2956,8 +3090,8 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2977,38 +3111,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,38 +3164,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E60" s="3">
         <v>17200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3077,38 +3217,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E61" s="3">
         <v>40200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>40100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>40000</v>
       </c>
       <c r="G61" s="3">
         <v>40000</v>
       </c>
       <c r="H61" s="3">
+        <v>40000</v>
+      </c>
+      <c r="I61" s="3">
         <v>39800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3127,38 +3270,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
         <v>2800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,8 +3323,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,38 +3482,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E66" s="3">
         <v>60300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>59700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3377,8 +3535,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3521,13 +3689,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>353300</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>353300</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>353300</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,38 +3768,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-559200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-546000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-530400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-513600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-496900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-479300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-463500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-450900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-437400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,8 +3821,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,38 +3980,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E76" s="3">
         <v>89900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>96000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>110000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>123200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>138200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>150900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-313400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-301900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3847,8 +4033,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,49 +4086,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3952,44 +4144,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4197,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,8 +4220,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4055,11 +4254,11 @@
         <v>1000</v>
       </c>
       <c r="M83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,8 +4271,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,44 +4536,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4372,8 +4589,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,44 +4612,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
       <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-500</v>
       </c>
       <c r="L91" s="3">
         <v>-500</v>
       </c>
       <c r="M91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4442,8 +4663,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,44 +4769,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E94" s="3">
         <v>10400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>14100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>14900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-80200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>19200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>14500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4592,8 +4822,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4662,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,44 +5055,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E100" s="3">
         <v>6300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>120500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4862,8 +5108,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4891,14 +5140,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4912,44 +5161,47 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-43700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4960,6 +5212,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>RXST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,69 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -739,47 +740,50 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E8" s="3">
         <v>17500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -792,46 +796,49 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E9" s="3">
         <v>7100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3500</v>
       </c>
       <c r="N9" s="3">
         <v>3500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
+      <c r="O9" s="3">
+        <v>3500</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
@@ -845,47 +852,50 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -898,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,47 +932,48 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>6600</v>
       </c>
       <c r="L12" s="3">
         <v>6600</v>
       </c>
       <c r="M12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N12" s="3">
         <v>5300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5700</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,31 +1042,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1078,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1116,8 +1139,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
@@ -1131,8 +1154,11 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,47 +1175,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E17" s="3">
         <v>30600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1202,47 +1229,50 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,47 +1309,48 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>35100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>39600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1329,47 +1363,50 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,22 +1419,25 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E22" s="3">
         <v>1500</v>
       </c>
       <c r="F22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="3">
         <v>1300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1100</v>
       </c>
       <c r="H22" s="3">
         <v>1100</v>
@@ -1409,19 +1449,19 @@
         <v>1100</v>
       </c>
       <c r="K22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1435,47 +1475,50 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>30700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1488,8 +1531,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1526,8 +1572,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1541,8 +1587,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,47 +1643,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,47 +1699,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1700,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,47 +1979,50 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-35100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-39600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1965,47 +2035,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,47 +2147,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,52 +2203,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2182,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,41 +2310,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E41" s="3">
         <v>11000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>68300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,41 +2364,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>138300</v>
+      </c>
+      <c r="E42" s="3">
         <v>142900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>94000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>103900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>104600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>119700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>135000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>100000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>40000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,41 +2420,44 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E43" s="3">
         <v>12700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,41 +2476,44 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E44" s="3">
         <v>18100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,41 +2532,44 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="E45" s="3">
         <v>3000</v>
       </c>
       <c r="F45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,41 +2588,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>180400</v>
+      </c>
+      <c r="E46" s="3">
         <v>187700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>134600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>139200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>149900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>161100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>176300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>186300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>77800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2542,8 +2644,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2595,41 +2700,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E48" s="3">
         <v>13400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2756,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2701,8 +2812,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,41 +2924,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
         <v>1500</v>
       </c>
       <c r="F52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>900</v>
       </c>
       <c r="I52" s="3">
         <v>900</v>
       </c>
       <c r="J52" s="3">
+        <v>900</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,8 +2980,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,41 +3036,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E54" s="3">
         <v>202500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>150200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>155700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>166700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>177100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>192700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>203700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>94900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,41 +3138,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1700</v>
       </c>
       <c r="J57" s="3">
         <v>1700</v>
       </c>
       <c r="K57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3061,8 +3192,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3070,19 +3204,19 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3093,8 +3227,8 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -3114,41 +3248,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E59" s="3">
         <v>11000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3167,41 +3304,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E60" s="3">
         <v>14900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,41 +3360,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E61" s="3">
         <v>40300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>40200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>40100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>40000</v>
       </c>
       <c r="H61" s="3">
         <v>40000</v>
       </c>
       <c r="I61" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J61" s="3">
         <v>39800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3273,41 +3416,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3326,8 +3472,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,41 +3640,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E66" s="3">
         <v>57500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>59700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3538,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3692,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>353300</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>353300</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>353300</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,41 +3942,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-573000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-559200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-546000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-530400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-513600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-496900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-479300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-463500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-450900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-437400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3824,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,41 +4166,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E76" s="3">
         <v>145000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>89900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>96000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>110000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>123200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>138200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>150900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-313400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-301900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4036,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,52 +4278,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4147,47 +4339,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,8 +4419,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4257,11 +4456,11 @@
         <v>1000</v>
       </c>
       <c r="N83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O83" s="3">
         <v>1100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4274,8 +4473,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,47 +4753,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4592,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,47 +4833,48 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
       </c>
       <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-500</v>
       </c>
       <c r="M91" s="3">
         <v>-500</v>
       </c>
       <c r="N91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4887,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,47 +4999,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-48400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>10400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>14100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>14900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-80200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>19200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>14500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4825,8 +5055,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4899,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,47 +5301,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>65300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>120500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5111,8 +5357,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5143,14 +5392,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -5164,47 +5413,50 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-43700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5215,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,50 +744,53 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E8" s="3">
         <v>20800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,49 +803,52 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E9" s="3">
         <v>8800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3500</v>
       </c>
       <c r="O9" s="3">
         <v>3500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
+      <c r="P9" s="3">
+        <v>3500</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
@@ -855,50 +862,53 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E10" s="3">
         <v>12000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,50 +946,51 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E12" s="3">
         <v>7300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>6600</v>
       </c>
       <c r="M12" s="3">
         <v>6600</v>
       </c>
       <c r="N12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="O12" s="3">
         <v>5300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5700</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,17 +1062,20 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1091,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1101,8 +1121,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1142,8 +1165,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,50 +1202,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E17" s="3">
         <v>34800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1232,50 +1259,53 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,50 +1343,51 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>35100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>39600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,50 +1400,53 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,25 +1459,28 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1500</v>
       </c>
       <c r="F22" s="3">
         <v>1500</v>
       </c>
       <c r="G22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H22" s="3">
         <v>1300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1100</v>
       </c>
       <c r="I22" s="3">
         <v>1100</v>
@@ -1452,19 +1492,19 @@
         <v>1100</v>
       </c>
       <c r="L22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1478,50 +1518,53 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1534,8 +1577,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1575,8 +1621,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,50 +1695,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,50 +1754,53 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,50 +2049,53 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-35100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-39600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,50 +2108,53 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,50 +2226,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,55 +2285,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,44 +2397,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E41" s="3">
         <v>8800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>68300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,44 +2454,47 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E42" s="3">
         <v>138300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>142900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>94000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>103900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>104600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>119700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>135000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>100000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>40000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2423,44 +2513,47 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E43" s="3">
         <v>13300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2479,44 +2572,47 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E44" s="3">
         <v>17900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2535,44 +2631,47 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3000</v>
       </c>
       <c r="F45" s="3">
         <v>3000</v>
       </c>
       <c r="G45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,44 +2690,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E46" s="3">
         <v>180400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>187700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>134600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>139200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>149900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>161100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>176300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>186300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>77800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,8 +2749,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2703,44 +2808,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E48" s="3">
         <v>13700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2759,8 +2867,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2815,8 +2926,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,44 +3044,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>1500</v>
       </c>
       <c r="G52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>900</v>
       </c>
       <c r="J52" s="3">
         <v>900</v>
       </c>
       <c r="K52" s="3">
+        <v>900</v>
+      </c>
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,44 +3162,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>181900</v>
+      </c>
+      <c r="E54" s="3">
         <v>195300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>202500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>150200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>155700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>166700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>177100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>192700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>203700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>94900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,44 +3269,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1700</v>
       </c>
       <c r="K57" s="3">
         <v>1700</v>
       </c>
       <c r="L57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,31 +3326,34 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3230,8 +3364,8 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -3251,44 +3385,47 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E59" s="3">
         <v>12500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3307,44 +3444,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E60" s="3">
         <v>16600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,44 +3503,47 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>19600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>40300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>40200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>40100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>40000</v>
       </c>
       <c r="I61" s="3">
         <v>40000</v>
       </c>
       <c r="J61" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K61" s="3">
         <v>39800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3419,44 +3562,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3621,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,44 +3798,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E66" s="3">
         <v>38100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>59700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3863,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>353300</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>353300</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>353300</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,44 +4116,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-585500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-573000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-559200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-546000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-530400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-513600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-496900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-479300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-463500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-450900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-437400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,44 +4352,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>161500</v>
+      </c>
+      <c r="E76" s="3">
         <v>157200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>145000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>89900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>96000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>110000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>123200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>138200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>150900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-313400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-301900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,55 +4470,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,50 +4534,53 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,13 +4618,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E83" s="3">
         <v>1000</v>
@@ -4459,11 +4658,11 @@
         <v>1000</v>
       </c>
       <c r="O83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,50 +4970,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,50 +5054,51 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-400</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
       </c>
       <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-500</v>
       </c>
       <c r="N91" s="3">
         <v>-500</v>
       </c>
       <c r="O91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,50 +5229,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E94" s="3">
         <v>4400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-48400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>14100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>14900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-80200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>19200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>14500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5058,8 +5288,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,50 +5547,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>65300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>120500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>24300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5606,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5395,14 +5644,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
@@ -5416,50 +5665,53 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-43700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
